--- a/pred_ohlcv/54_21/2020-01-19 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 TMTG ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>191986.6576548276</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2096097.282750456</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>833026.4276148223</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>833026.4276148223</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>833026.4276148223</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>833026.4276148223</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>830212.3596148223</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>830212.3596148223</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>838351.8106148223</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>837192.8856148223</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>839518.2016148223</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>834644.1396148222</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>839442.6546148222</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>839442.6546148222</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>839031.3086148222</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>839031.3086148222</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>839031.3086148222</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>843548.5646148223</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>835918.5416148222</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>836382.8866148222</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>836382.8866148222</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>834649.3116148222</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>838585.8686148223</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>838585.8686148223</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>838585.8686148223</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>934335.2387314889</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>934335.2387314889</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>798381.043731489</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>2209389.446331489</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1820744.948931489</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>3362941.303931489</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>3057527.380031489</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2029403.535031489</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2543139.093031489</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1832041.375031489</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1900292.356031489</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1900292.356031489</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>879426.7428314891</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-4011756.292661991</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-4309179.171661991</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-3724922.497661991</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-3848784.861661991</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-3750372.517261991</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-3581077.005261991</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-3873072.829261991</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-3552119.871261991</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-3569921.790261991</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-3486244.520261991</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-3656722.273261991</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-3346742.246261991</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-3716136.30226199</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-3716136.30226199</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-3639691.334261991</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-3862494.57726199</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-3461048.575261991</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-3376290.031261991</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-4061211.471261991</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-4030108.655261991</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3841171.191261991</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-3826184.855261991</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-3775672.349261991</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-3690705.415261991</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-4213051.27326199</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-4735131.89726199</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-4391246.115261991</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-4755219.17726199</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-4328047.399261991</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-4318448.36926199</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-4374515.21426199</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-4060645.07326199</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-3785309.29826199</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-3449630.49526199</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-3403988.343261991</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-3490441.213261991</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-3351997.115261991</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-3017943.057261991</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-3120529.075761991</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-3076158.01776199</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-2790223.43476199</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-2497995.18076199</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-2867072.98076199</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-2814929.64676199</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-2963919.77776199</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-2762951.96476199</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-2537473.03176199</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-2816243.39876199</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-2804622.31676199</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-2846097.92776199</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-3234100.01046199</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-2802312.12246199</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3089475.17146199</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-2671432.27946199</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-2146844.26256199</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>371827.2004380109</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-1079781.076561989</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-1845289.810613024</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-1980744.712613024</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-1775756.084613024</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-2034789.716613024</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-2040894.527013024</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 TMTG ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>191986.6576548276</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1901706.326931489</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1901706.326931489</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1820744.948931489</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>3362941.303931489</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>3915513.726031489</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>3057527.380031489</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>2029403.535031489</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2543139.093031489</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-4229148.820661991</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-4011756.292661991</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-4309179.171661991</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-3724922.497661991</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-3848784.861661991</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-3750372.517261991</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-3581077.005261991</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-3873072.829261991</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-3552119.871261991</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-3569921.790261991</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-3486244.520261991</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-3656722.273261991</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-3346742.246261991</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-3716136.30226199</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-3716136.30226199</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-3639691.334261991</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-3862494.57726199</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-3461048.575261991</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-3376290.031261991</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-4061211.471261991</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-4030108.655261991</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-4107612.278261991</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3841171.191261991</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-3826184.855261991</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-3775672.349261991</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-3690705.415261991</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-4213051.27326199</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-4735131.89726199</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-4682514.183261991</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-4391246.115261991</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-4755219.17726199</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-4328047.399261991</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-4318448.36926199</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-4374515.21426199</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-4060645.07326199</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-3785309.29826199</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-3449630.49526199</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-3403988.343261991</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-3490441.213261991</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-3351997.115261991</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-3190869.724261991</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-3017943.057261991</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-3120529.075761991</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-3076158.01776199</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-2790223.43476199</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-2497995.18076199</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-2867072.98076199</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-2814929.64676199</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-2963919.77776199</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-2762951.96476199</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-2537473.03176199</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-2816243.39876199</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-2804622.31676199</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-2846097.92776199</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-3234100.01046199</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-2970874.57546199</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-2802312.12246199</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3089475.17146199</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-2671432.27946199</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-2146844.26256199</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>371827.2004380109</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>371827.2004380109</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-1079781.076561989</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-1845289.810613024</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-1980744.712613024</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-1775756.084613024</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-2034789.716613024</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
